--- a/Plotting/production_shares_olefins_LowAmbition.xlsx
+++ b/Plotting/production_shares_olefins_LowAmbition.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,20 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -496,6 +510,36 @@
           <t>2050</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -504,12 +548,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1718092.7301732</v>
+        <v>1718092.730173202</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -528,6 +590,24 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -539,10 +619,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1018357.862924151</v>
+        <v>1018317.089681282</v>
       </c>
       <c r="D6" t="n">
-        <v>1016970.364222568</v>
+        <v>1016974.754263447</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1717666.256705075</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1291315.402767987</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1289650.900672362</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1717666.256704899</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1290907.069595588</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1289650.900680386</v>
       </c>
     </row>
     <row r="7">
@@ -560,6 +658,24 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -571,10 +687,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>699163.3520400148</v>
+        <v>699204.1168262111</v>
       </c>
       <c r="D8" t="n">
-        <v>700550.5629640836</v>
+        <v>700546.1738337319</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>426262.425611852</v>
+      </c>
+      <c r="G8" t="n">
+        <v>427926.582477398</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.185345212715367e-09</v>
+      </c>
+      <c r="I8" t="n">
+        <v>426670.6740929194</v>
+      </c>
+      <c r="J8" t="n">
+        <v>427926.5824773965</v>
       </c>
     </row>
     <row r="9">
@@ -592,6 +726,24 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -608,6 +760,24 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -624,6 +794,24 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -640,6 +828,24 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -656,6 +862,24 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -672,6 +896,24 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -688,6 +930,24 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -704,10 +964,30 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
